--- a/biology/Histoire de la zoologie et de la botanique/George_Rabb/George_Rabb.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/George_Rabb/George_Rabb.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">George Bernard Rabb (né le 23 mars 1930 aux États-Unis d’Amérique[1] et mort le 27 juillet 2017[2]), est un zoologiste américain ; il a été le directeur du zoo de Brookfield (1976-2003) et le président de la Société zoologique de Chicago (1976-2003).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">George Bernard Rabb (né le 23 mars 1930 aux États-Unis d’Amérique et mort le 27 juillet 2017), est un zoologiste américain ; il a été le directeur du zoo de Brookfield (1976-2003) et le président de la Société zoologique de Chicago (1976-2003).
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Activités professionnelles dans le domaine zoologique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fonctions actuellement occupées à titre honorifique : président émérite, Société zoologique de Chicago ; directeur émérite, Parc zoologique de Chicago (Zoo de Brookfield) ; membre du conseil d’administration de la Société zoologique de Chicago.
 Chronologie
@@ -524,7 +538,7 @@
 1974-1989 : président du groupe consultatif sur les politiques de l'AZA (American Zoo and Aquarium Association) ;
 1989-1997 : Président (1989-1992) et membre du conseil d’administration (1993-1997) du Système international d'information des espèces (ISIS).
 George Rabb a défendu l'évolution des zoos - des ménageries aux parcs zoologiques - vers une transformation en centres de conservation de la nature, à travers la stratégie de conservation (World Zoo Conservation Strategy, 1993)
-[3] de la WAZA et de bien d'autres façons.
+ de la WAZA et de bien d'autres façons.
 </t>
         </is>
       </c>
@@ -553,7 +567,9 @@
           <t>Expérience dans les domaines intéressant la conservation de la nature</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Au sein de l’UICN, il a été membre du Comité directeur du Groupe CSE/UICN de spécialistes de l’élevage en captivité (Captive Breeding Specialist Group) et du conseil du groupe d’étude CSE/UICN sur le déclin des populations d'amphibiens (Declining Amphibian Populations Task Force).
 Il a aussi présidé la Commission de la sauvegarde des espèces (CSE) de l'UICN :
@@ -597,7 +613,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) George B. RABB, "The Changing Roles of Zoological Parks in Conserving Biological Diversity", Am. Zool., Vol. 34, No.1, 1994, p. 159-164. DOI 10.1093/icb/34.1.159
 (en) George B. RABB, "The Evolution of Zoos from Menageries to Centers of Conservation and Caring", Curator : The Museum Journal, Vol.47, No.3, July 2004, p. 237-246. DOI 10.1111/j.2151-6952.2004.tb00121.x
